--- a/data/login.xlsx
+++ b/data/login.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -34,16 +34,13 @@
     <t xml:space="preserve">secret_sauce</t>
   </si>
   <si>
-    <t xml:space="preserve">locked_out_user</t>
-  </si>
-  <si>
     <t xml:space="preserve">visual_user</t>
   </si>
   <si>
     <t xml:space="preserve">secret</t>
   </si>
   <si>
-    <t xml:space="preserve">user</t>
+    <t xml:space="preserve">user_dummy</t>
   </si>
 </sst>
 </file>
@@ -260,10 +257,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -297,35 +294,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
